--- a/socialstyrelsen/statistik-covid19-avlidna_2021-01-11.xlsx
+++ b/socialstyrelsen/statistik-covid19-avlidna_2021-01-11.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="929">
   <si>
     <t>Diabetes</t>
   </si>
@@ -3040,6 +3040,9 @@
   </si>
   <si>
     <t>Varberg</t>
+  </si>
+  <si>
+    <t>Fel i kommuntabellen korrigerades. Tidigare publiceringar 2020-12-16, 2020-12-23 och 2020-12-30 innehöll felaktiga värden för flera kommuner.</t>
   </si>
 </sst>
 </file>
@@ -5202,7 +5205,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5564,7 +5566,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6063,7 +6064,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6353,7 +6353,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15701,6 +15700,67 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3609975" cy="595356"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="textruta 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6915150" y="247650"/>
+          <a:ext cx="3609975" cy="595356"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="sv-SE" sz="800" b="1" smtClean="0"/>
+            <a:t>Ändring</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="sv-SE" sz="800" b="1" baseline="0" smtClean="0"/>
+            <a:t> 2021-01-08</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="sv-SE" sz="800" smtClean="0"/>
+            <a:t>Fel i kommuntabellen korrigerades. Tidigare publiceringar 2020-12-16, 2020-12-23 och 2020-12-30 innehöll felaktiga värden för flera kommuner.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -17101,72 +17161,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3609975" cy="469616"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="textruta 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9963150" y="342900"/>
-          <a:ext cx="3609975" cy="469616"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="800" b="1" smtClean="0"/>
-            <a:t>Ändring</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="800" b="1" baseline="0" smtClean="0"/>
-            <a:t> 2020-08-26</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="800" smtClean="0"/>
-            <a:t>Beräkning av socialtjänstinsats/boendeform har uppdaterats.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="800" baseline="0" smtClean="0"/>
-            <a:t> Det påverkar antal avlidna med hemtjänst.</a:t>
-          </a:r>
-          <a:endParaRPr lang="sv-SE" sz="800" smtClean="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -17386,72 +17380,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3609975" cy="469616"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="textruta 8"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7210425" y="247650"/>
-          <a:ext cx="3609975" cy="469616"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="800" b="1" smtClean="0"/>
-            <a:t>Ändring</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="800" b="1" baseline="0" smtClean="0"/>
-            <a:t> 2020-08-26</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="800" smtClean="0"/>
-            <a:t>Beräkning av socialtjänstinsats/boendeform har uppdaterats.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="800" baseline="0" smtClean="0"/>
-            <a:t> Det påverkar antal avlidna på särskilt boende och med hemtjänst.</a:t>
-          </a:r>
-          <a:endParaRPr lang="sv-SE" sz="800" smtClean="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -19516,67 +19444,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3609975" cy="469616"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="textruta 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8991600" y="247650"/>
-          <a:ext cx="3609975" cy="469616"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="800" b="1" smtClean="0"/>
-            <a:t>Ändring</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="800" b="1" baseline="0" smtClean="0"/>
-            <a:t> 2020-08-26</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="800" smtClean="0"/>
-            <a:t>Beräkning av socialtjänstinsats/boendeform har uppdaterats. Det påverkar antal avlidna på särskilt boende eller med hemtjänst.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -36166,9 +36033,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -36182,18 +36051,18 @@
     </row>
     <row r="2" spans="1:2" s="82" customFormat="1">
       <c r="A2" s="154">
-        <v>44104</v>
+        <v>44204</v>
       </c>
       <c r="B2" s="82" t="s">
-        <v>237</v>
+        <v>928</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="154">
-        <v>44069</v>
-      </c>
-      <c r="B3" t="s">
-        <v>219</v>
+        <v>44104</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -36201,47 +36070,47 @@
         <v>44069</v>
       </c>
       <c r="B4" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="154">
-        <v>44008</v>
+        <v>44069</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="154">
-        <v>44006</v>
+        <v>44008</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="154">
-        <v>43992</v>
+        <v>44006</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="154">
-        <v>43971</v>
+        <v>43992</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="154">
-        <v>43959</v>
+        <v>43971</v>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -36249,7 +36118,7 @@
         <v>43959</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -36257,6 +36126,14 @@
         <v>43959</v>
       </c>
       <c r="B11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="154">
+        <v>43959</v>
+      </c>
+      <c r="B12" t="s">
         <v>207</v>
       </c>
     </row>
@@ -52532,6 +52409,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
@@ -52569,7 +52455,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100361443839E954C488E1554F766430BDE" ma:contentTypeVersion="37" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="ec0867efc9d878e75742a5b73fddae48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd3acd59-a8d8-42b1-950d-eec6c247243c" xmlns:ns3="343f6c91-b5b3-4dff-89ad-5fc55ccc8930" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f4ea334ff345e29c5775f0a2fd1174f" ns2:_="" ns3:_="">
     <xsd:import namespace="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
@@ -52902,33 +52788,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2BDD971-BADF-427E-9579-B824215A28B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -52945,12 +52830,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>